--- a/sputnik/personal/uch/uch51.xlsx
+++ b/sputnik/personal/uch/uch51.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Оплачено</t>
   </si>
   <si>
     <t xml:space="preserve">Начислено </t>
-  </si>
-  <si>
-    <t>Наименование</t>
   </si>
   <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
@@ -35,14 +32,17 @@
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №51</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -171,16 +171,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,7 +499,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D4:D6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,10 +513,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -518,11 +527,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>10255.700000000001</v>
@@ -530,11 +539,11 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>43309</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
@@ -542,11 +551,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>43337</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -554,11 +563,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>43372</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
@@ -566,39 +575,36 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>43586</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14">
         <v>10110.1</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>43749</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
         <v>10110.1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch51.xlsx
+++ b/sputnik/personal/uch/uch51.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №51</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -189,6 +192,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,7 +503,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -599,9 +603,15 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>11375</v>
+      </c>
       <c r="D9" s="13"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch51.xlsx
+++ b/sputnik/personal/uch/uch51.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -186,13 +186,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,10 +498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C9" sqref="C9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -585,10 +583,10 @@
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>10110.1</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -597,13 +595,13 @@
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
         <v>10110.1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>43952</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -613,6 +611,30 @@
         <v>11375</v>
       </c>
       <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>44046</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch51.xlsx
+++ b/sputnik/personal/uch/uch51.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,9 +628,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>12130.4</v>
+      </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch51.xlsx
+++ b/sputnik/personal/uch/uch51.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -501,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -640,10 +640,20 @@
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="14">
+        <v>44467</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>12130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch51.xlsx
+++ b/sputnik/personal/uch/uch51.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2019</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2021</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A13" sqref="A13:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,7 +606,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13">
-        <v>10110.1</v>
+        <v>10110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="15">
-        <v>12130.4</v>
+        <v>12130.3</v>
       </c>
       <c r="D11" s="15"/>
     </row>
@@ -652,8 +658,46 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="14">
+        <v>44526</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>44526</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
